--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="142">
   <si>
     <t>symptom</t>
   </si>
@@ -47,7 +47,7 @@
     <t>links</t>
   </si>
   <si>
-    <t>Strong urge or craving for a specific substance or activity.</t>
+    <t>Frequent desire for a particular thing or activity</t>
   </si>
   <si>
     <t>Alcohol Addiction , Drug Addiction , Caffeine Addiction , Cannabis Use Disorder , Nicotine Addiction , Binge Drinking</t>
@@ -59,37 +59,37 @@
     <t>Use therapy to change habits related to drug use , Join groups like Alcoholics Anonymous (AA) or Narcotics Anonymous (NA) for peer support , Replace drug use with activities like exercise or hobbies , Stay away from situations that lead to drug use , Talk to a doctor about medications to reduce cravings.</t>
   </si>
   <si>
-    <t>Compulsive Behaviors &amp; Addiction</t>
+    <t>Habitual Behaviors &amp; Cravings</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FwKYHM0_W4k</t>
   </si>
   <si>
-    <t>Can't control how often or how much you use or do something.</t>
+    <t>Difficulty managing how often or how much you do something</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FwKYHM0_W5k</t>
   </si>
   <si>
-    <t>Neglecting responsibilities like work, school, or personal tasks.</t>
+    <t>Struggling to keep up with responsibilities</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FwKYHM0_W6k</t>
   </si>
   <si>
-    <t>Feeling unwell or upset when not engaging in the behavior.</t>
+    <t>Feeling uncomfortable when not doing a specific activity</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FwKYHM0_W7k</t>
   </si>
   <si>
-    <t>Relationship or daily life issues due to the behavior.</t>
+    <t>Challenges in relationships or daily life due to certain actions</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FwKYHM0_W8k</t>
   </si>
   <si>
-    <t>Trouble concentrating on tasks.</t>
+    <t>Difficulty focusing on tasks</t>
   </si>
   <si>
     <t>Attention Deficit Hyperactivity Disorder (ADHD) , Conduct Disorder</t>
@@ -107,7 +107,7 @@
     <t>https://www.youtube.com/watch?v=52nqjrCs57s</t>
   </si>
   <si>
-    <t>Acting quickly without thinking about the consequences.</t>
+    <t>Acting on impulse without thinking it through</t>
   </si>
   <si>
     <t>Impulsivity &amp; Recklessness</t>
@@ -116,22 +116,22 @@
     <t>https://www.youtube.com/watch?v=7zMIT16CskM</t>
   </si>
   <si>
-    <t>Feeling overly active or unable to stay still.</t>
+    <t>Feeling restless or super energetic</t>
   </si>
   <si>
-    <t>Struggling to follow directions or guidelines.</t>
+    <t>Finding it hard to stick to instructions</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=52nqjrCs60s</t>
   </si>
   <si>
-    <t>Problems with managing tasks or staying organized.</t>
+    <t>Challenges in organizing or managing tasks</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=52nqjrCs61s</t>
   </si>
   <si>
-    <t>Rapid and intense changes in mood.</t>
+    <t>Sudden shifts in mood</t>
   </si>
   <si>
     <t>Bipolar Disorder , Depression , Mixed Personality Disorder</t>
@@ -143,37 +143,37 @@
     <t>Talk to a doctor about medications for mood balance , Engage in cognitive-behavioral therapy (CBT) or dialectical behavior therapy (DBT) to manage mood swings and depressive symptoms , Exercise regularly to boost your mood , Keep a consistent sleep schedule for better energy and mood , Reach out to friends, family, or support groups for help.</t>
   </si>
   <si>
-    <t>Mood Swings &amp; Emotional Problems</t>
+    <t>Mood Balance Issues</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ONYG7v05oU0</t>
   </si>
   <si>
-    <t>Periods of overly high mood or energy.</t>
+    <t>Moments of feeling extra happy or energetic</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ONYG7v05oU1</t>
   </si>
   <si>
-    <t>Periods of low mood or sadness.</t>
+    <t>Moments of feeling low or sad</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ONYG7v05oU2</t>
   </si>
   <si>
-    <t>Mood changes disrupting daily life</t>
+    <t>Mood changes that make daily life tricky</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ONYG7v05oU3</t>
   </si>
   <si>
-    <t>Changes in energy levels or activity</t>
+    <t>Energy levels that vary a lot</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ONYG7v05oU4</t>
   </si>
   <si>
-    <t>Excessive worry about getting fat.</t>
+    <t>Frequent concern about weight</t>
   </si>
   <si>
     <t>Anorexia , Bulimia , Binge Eating , Avoidant Restrictive Food Intake Disorder (ARFID)</t>
@@ -185,13 +185,13 @@
     <t>Use cognitive-behavioral therapy (CBT) or family therapy to tackle eating habits and body image issues , Work with a dietitian to create a healthy eating plan , Join groups for people with eating disorders for support , Pay attention to your eating habits , See a doctor regularly to check your health and nutrition.</t>
   </si>
   <si>
-    <t>Anxiety &amp; Worry</t>
+    <t>Nervous Feelings and Concerns</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yqR77sa4EVE</t>
   </si>
   <si>
-    <t>Unrealistic view of your own body.</t>
+    <t>Seeing your body differently than others see it</t>
   </si>
   <si>
     <t>Body Image &amp; Eating Concerns</t>
@@ -200,22 +200,22 @@
     <t>https://www.youtube.com/watch?v=ApUuyHSWBd8</t>
   </si>
   <si>
-    <t>Significant weight gain or loss.</t>
+    <t>Notable changes in weight</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ApUuyHSWBd9</t>
   </si>
   <si>
-    <t>Excessive exercise or weight control methods.</t>
+    <t>Strong focus on exercise or weight management</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ApUuyHSWBd10</t>
   </si>
   <si>
-    <t>Inability to control eating behavior.</t>
+    <t>Finding it hard to manage eating habits</t>
   </si>
   <si>
-    <t>Excessive worry about different aspects of life.</t>
+    <t>Often feeling anxious about things</t>
   </si>
   <si>
     <t>Generalized Anxiety Disorder , Panic Disorder , Social Anxiety Disorder , Post-Traumatic Stress Disorder (PTSD)</t>
@@ -227,22 +227,25 @@
     <t>Use therapy to tackle anxious thoughts and behaviors , Try deep breathing or muscle relaxation to ease anxiety , Exercise regularly to help manage anxiety , Practice meditation to stay calm and focused , Talk to a doctor about medications that can help with anxiety.</t>
   </si>
   <si>
-    <t>Feeling uneasy or unable to relax.</t>
+    <t>Feeling tense or unable to unwind</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yqR77sa5EVE</t>
   </si>
   <si>
-    <t>Physical signs of anxiety, like tense muscles.</t>
+    <t>Body feels tense or on edge</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yqR77sa6EVE</t>
   </si>
   <si>
-    <t>Trouble focusing or thinking clearly.</t>
+    <t>Difficulty staying focused or thinking straight</t>
   </si>
   <si>
-    <t>Disregard for others' rights and feelings.</t>
+    <t>Struggles with relationships or everyday activities</t>
+  </si>
+  <si>
+    <t>Overlooking the needs and feelings of others</t>
   </si>
   <si>
     <t>Antisocial Personality Disorder , Narcissistic Personality Disorder , Borderline Personality Disorder , Avoidant Personality Disorder</t>
@@ -260,19 +263,19 @@
     <t>https://www.youtube.com/watch?v=28mTBN5gtF8</t>
   </si>
   <si>
-    <t>Engaging in dishonest or manipulative behavior.</t>
+    <t>Occasionally bending the truth or being persuasive</t>
   </si>
   <si>
-    <t>Acting recklessly and neglecting duties.</t>
+    <t>Taking risks and sometimes missing responsibilities</t>
   </si>
   <si>
-    <t>Showing hostility or being easily angered.</t>
+    <t>Getting frustrated or angry easily</t>
   </si>
   <si>
-    <t>Not feeling guilty or sorry for harmful actions.</t>
+    <t>Rarely feeling regretful about certain actions</t>
   </si>
   <si>
-    <t>Forgetfulness that affects daily activities.</t>
+    <t>Being a bit forgetful with day-to-day stuff</t>
   </si>
   <si>
     <t>Alzheimer's Disease , Dementia , Intellectual Disability</t>
@@ -284,19 +287,28 @@
     <t>Do exercises to boost memory and problem-solving skills , Set up a structured environment to help with daily tasks , Join groups for support and advice from others with similar conditions , Work with therapists for personalized strategies , Eat well, exercise, and sleep enough to support brain health.</t>
   </si>
   <si>
-    <t>Trouble organizing thoughts or making decisions.</t>
+    <t>Finding it hard to organize thoughts or make choices</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=52nqjrCs58s</t>
   </si>
   <si>
-    <t>Confusion about time or surroundings.</t>
+    <t>Feeling a little lost with time or place</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=52nqjrCs59s</t>
   </si>
   <si>
-    <t>Uncontrolled urge to steal objects.</t>
+    <t>Frequent mood changes</t>
+  </si>
+  <si>
+    <t>Mood Swings &amp; Emotional Problems</t>
+  </si>
+  <si>
+    <t>Challenges with staying organized or on top of things</t>
+  </si>
+  <si>
+    <t>Feeling the need to take things impulsively</t>
   </si>
   <si>
     <t>Kleptomania , Gambling Disorder</t>
@@ -308,13 +320,13 @@
     <t>Use therapy to manage thoughts and urges to steal , Practice being aware of your feelings to reduce anxiety before stealing , Join support groups to connect with others facing similar challenges and gain support , Find other ways to handle stress, like hobbies or exercise , Work with a therapist who specializes in impulse control.</t>
   </si>
   <si>
-    <t>Feeling relief or satisfaction after stealing.</t>
+    <t>Feeling better after taking something</t>
   </si>
   <si>
-    <t>Problems with daily tasks due to stealing.</t>
+    <t>Daily life affected by taking things impulsively</t>
   </si>
   <si>
-    <t>Difficulty making or keeping friends.</t>
+    <t>Finding it hard to make or keep friends</t>
   </si>
   <si>
     <t>Autism , Social Communication Disorder</t>
@@ -326,7 +338,7 @@
     <t>Work with a speech therapist to improve communication skills , Address sensory issues and daily tasks with an occupational therapist , Develop better social interaction skills through structured programs , Set up a structured environment to reduce anxiety and improve daily life , Connect with others in similar situations for support and advice.</t>
   </si>
   <si>
-    <t>Sticking to a few activities or repeating the same things.</t>
+    <t>Preferring certain activities or routines</t>
   </si>
   <si>
     <t>Sensory &amp; Communication Issues</t>
@@ -335,13 +347,13 @@
     <t>https://www.youtube.com/watch?v=yDiIa8Ox2g4</t>
   </si>
   <si>
-    <t>Over- or under-sensitive to sensory input.</t>
+    <t>Being extra aware or less aware of sounds, sights, or textures</t>
   </si>
   <si>
-    <t>Problems with expressing or understanding language.</t>
+    <t>Difficulty with communication or understanding</t>
   </si>
   <si>
-    <t>Feeling sleepy all day.</t>
+    <t>Feeling drowsy during the day</t>
   </si>
   <si>
     <t>Narcolepsy , Delayed Sleep Phase Syndrome , Non-24-Hour Sleep-Wake Disorder</t>
@@ -359,25 +371,25 @@
     <t>https://www.youtube.com/watch?v=osoOPP6PN5Y</t>
   </si>
   <si>
-    <t>Sudden muscle weakness or collapse due to emotions.</t>
+    <t>Feeling weak or losing strength with strong emotions</t>
   </si>
   <si>
-    <t>Temporary inability to move or speak when falling asleep or waking up.</t>
+    <t>Feeling "frozen" while falling asleep or waking up</t>
   </si>
   <si>
-    <t>Seeing or hearing things that aren’t there.</t>
+    <t>Noticing things others may not see or hear</t>
   </si>
   <si>
-    <t>Psychotic Symptoms</t>
+    <t>"Confusing Thoughts and Perceptions</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=qtUZvsVI56o</t>
   </si>
   <si>
-    <t>Strongly believing things that aren’t true.</t>
+    <t>Believing in things others may not agree with</t>
   </si>
   <si>
-    <t>Strong emotional stress from life adjustment and transition.</t>
+    <t>Feeling stressed during big life changes</t>
   </si>
   <si>
     <t>Adjustment Disorder , Stress, Grief &amp; Loss</t>
@@ -389,10 +401,16 @@
     <t>Use therapy to develop stress management strategies , Practice deep breathing or muscle relaxation to reduce stress , Regular exercise can help manage stress and improve mood , Reach out to supportive friends, family, or support groups.</t>
   </si>
   <si>
-    <t>Difficulty adjusting to changes.</t>
+    <t>Times of feeling down or blue</t>
   </si>
   <si>
-    <t>Persistent, unwanted thoughts or impulses.</t>
+    <t>Finding it hard to adapt to new situations</t>
+  </si>
+  <si>
+    <t>Having a hard time with organizing or planning tasks</t>
+  </si>
+  <si>
+    <t>Recurring thoughts or urges that are hard to ignore</t>
   </si>
   <si>
     <t>Obsessive-Compulsive Disorder (OCD)</t>
@@ -404,13 +422,16 @@
     <t>Use therapy to face fears and reduce compulsive behaviors , Practice mindfulness to stay present and reduce anxiety , Establish a daily routine to manage symptoms , Consult with a doctor about medications that can help manage behavior.</t>
   </si>
   <si>
-    <t>Actions or mental rituals to relieve anxiety.</t>
+    <t>Doing certain actions or routines to feel calm</t>
   </si>
   <si>
-    <t>High anxiety or problems because of symptoms.</t>
+    <t>Feeling extra anxious or having challenges because of symptoms</t>
   </si>
   <si>
-    <t>Obsession with minor or imagined physical flaws.</t>
+    <t>Finding it hard to manage how much you do something</t>
+  </si>
+  <si>
+    <t>Focusing a lot on appearance details</t>
   </si>
   <si>
     <t>Gender Dysphoria , Body Dysmorphic Disorder</t>
@@ -422,10 +443,16 @@
     <t>Use therapy to address body image issues and emotional distress , Join groups for support from others with similar experiences.	Practice mindfulness to improve your relationship with your body , Eat well, exercise, and sleep enough to support overall well-being , See therapists or counselors who specialize in gender and sexual issues.</t>
   </si>
   <si>
-    <t>Performing routines to change or check appearance.</t>
+    <t>Regularly checking or adjusting appearance</t>
   </si>
   <si>
-    <t>Emotional distress about appearance.</t>
+    <t>Feeling worried or upset about how you look</t>
+  </si>
+  <si>
+    <t>Relationships or daily activities impacted by actions</t>
+  </si>
+  <si>
+    <t>Challenges with building or maintaining friendships</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,7 +1089,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1541,8 +1569,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -1596,7 +1624,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:26">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1636,7 +1664,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:26">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -1716,7 +1744,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:26">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1756,7 +1784,7 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:26">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -1796,7 +1824,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:26">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -1836,7 +1864,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
@@ -1876,7 +1904,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:26">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
@@ -1916,7 +1944,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
@@ -1956,7 +1984,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" customHeight="1" spans="1:26">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
@@ -1996,7 +2024,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
@@ -2036,7 +2064,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="1:26">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -2076,7 +2104,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:26">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
       <c r="B14" t="s">
@@ -2116,7 +2144,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" customHeight="1" spans="1:26">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
@@ -2156,7 +2184,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" customHeight="1" spans="1:26">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
@@ -2196,7 +2224,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" customHeight="1" spans="1:26">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
@@ -2236,7 +2264,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" customHeight="1" spans="1:26">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18" t="s">
@@ -2276,7 +2304,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:26">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
@@ -2316,7 +2344,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" customHeight="1" spans="1:26">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
@@ -2356,7 +2384,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" customHeight="1" spans="1:26">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
@@ -2396,7 +2424,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" customHeight="1" spans="1:26">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
@@ -2436,7 +2464,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" customHeight="1" spans="1:26">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
@@ -2476,7 +2504,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" customHeight="1" spans="1:26">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
@@ -2516,7 +2544,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" customHeight="1" spans="1:26">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" t="s">
@@ -2556,8 +2584,8 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" customHeight="1" spans="1:26">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
+      <c r="A26" t="s">
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -2596,23 +2624,23 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" customHeight="1" spans="1:26">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
+      <c r="A27" t="s">
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2636,23 +2664,23 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" customHeight="1" spans="1:26">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2676,17 +2704,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" customHeight="1" spans="1:26">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -2716,23 +2744,23 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" customHeight="1" spans="1:26">
-      <c r="A30" s="3" t="s">
-        <v>79</v>
+      <c r="A30" t="s">
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2756,23 +2784,23 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" customHeight="1" spans="1:26">
-      <c r="A31" s="3" t="s">
-        <v>80</v>
+      <c r="A31" t="s">
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2796,17 +2824,17 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" customHeight="1" spans="1:26">
-      <c r="A32" s="3" t="s">
-        <v>81</v>
+      <c r="A32" t="s">
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
         <v>24</v>
@@ -2836,23 +2864,23 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" customHeight="1" spans="1:26">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
         <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
       </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2876,23 +2904,23 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" customHeight="1" spans="1:26">
-      <c r="A34" s="3" t="s">
-        <v>87</v>
+      <c r="A34" t="s">
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2916,20 +2944,20 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" customHeight="1" spans="1:26">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>39</v>
@@ -2956,17 +2984,17 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" customHeight="1" spans="1:26">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
+      <c r="A36" t="s">
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -2996,17 +3024,17 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" customHeight="1" spans="1:26">
-      <c r="A37" s="3" t="s">
-        <v>89</v>
+      <c r="A37" t="s">
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -3036,17 +3064,17 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" customHeight="1" spans="1:26">
-      <c r="A38" s="3" t="s">
-        <v>93</v>
+      <c r="A38" t="s">
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -3076,17 +3104,17 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" customHeight="1" spans="1:26">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -3116,23 +3144,23 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" customHeight="1" spans="1:26">
-      <c r="A40" s="3" t="s">
-        <v>95</v>
+      <c r="A40" t="s">
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3156,23 +3184,23 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" customHeight="1" spans="1:26">
-      <c r="A41" s="3" t="s">
-        <v>99</v>
+      <c r="A41" t="s">
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3196,23 +3224,23 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" customHeight="1" spans="1:26">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3236,23 +3264,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" customHeight="1" spans="1:26">
-      <c r="A43" s="3" t="s">
-        <v>103</v>
+      <c r="A43" t="s">
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3276,23 +3304,23 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" customHeight="1" spans="1:26">
-      <c r="A44" s="3" t="s">
-        <v>104</v>
+      <c r="A44" t="s">
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3316,23 +3344,23 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" customHeight="1" spans="1:26">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3356,23 +3384,23 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" customHeight="1" spans="1:26">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3396,23 +3424,23 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" customHeight="1" spans="1:26">
-      <c r="A47" s="3" t="s">
-        <v>112</v>
+      <c r="A47" t="s">
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3436,23 +3464,23 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" customHeight="1" spans="1:26">
-      <c r="A48" s="3" t="s">
-        <v>115</v>
+      <c r="A48" t="s">
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3476,17 +3504,17 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" customHeight="1" spans="1:26">
-      <c r="A49" s="3" t="s">
-        <v>116</v>
+      <c r="A49" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -3516,17 +3544,17 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" customHeight="1" spans="1:26">
-      <c r="A50" s="3" t="s">
-        <v>42</v>
+      <c r="A50" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -3556,17 +3584,17 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" customHeight="1" spans="1:26">
-      <c r="A51" s="3" t="s">
-        <v>120</v>
+      <c r="A51" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
@@ -3596,17 +3624,17 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" customHeight="1" spans="1:26">
-      <c r="A52" s="3" t="s">
-        <v>32</v>
+      <c r="A52" t="s">
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>24</v>
@@ -3636,17 +3664,17 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" customHeight="1" spans="1:26">
-      <c r="A53" s="3" t="s">
-        <v>121</v>
+      <c r="A53" t="s">
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
@@ -3676,17 +3704,17 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" customHeight="1" spans="1:26">
-      <c r="A54" s="3" t="s">
-        <v>125</v>
+      <c r="A54" t="s">
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -3716,17 +3744,17 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" customHeight="1" spans="1:26">
-      <c r="A55" s="3" t="s">
-        <v>126</v>
+      <c r="A55" t="s">
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
         <v>52</v>
@@ -3756,17 +3784,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" customHeight="1" spans="1:26">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
+      <c r="A56" t="s">
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3796,17 +3824,17 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" customHeight="1" spans="1:26">
-      <c r="A57" s="3" t="s">
-        <v>127</v>
+      <c r="A57" t="s">
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -3836,17 +3864,17 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" customHeight="1" spans="1:26">
-      <c r="A58" s="3" t="s">
-        <v>131</v>
+      <c r="A58" t="s">
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
         <v>55</v>
@@ -3876,17 +3904,17 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:26">
-      <c r="A59" s="3" t="s">
-        <v>132</v>
+      <c r="A59" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
         <v>55</v>
@@ -3916,23 +3944,23 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" customHeight="1" spans="1:26">
-      <c r="A60" s="3" t="s">
-        <v>18</v>
+      <c r="A60" t="s">
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3956,23 +3984,23 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" customHeight="1" spans="1:26">
-      <c r="A61" s="3" t="s">
-        <v>95</v>
+      <c r="A61" t="s">
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3996,10 +4024,10 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" customHeight="1" spans="1:26">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -4024,10 +4052,10 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" customHeight="1" spans="1:26">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -4052,10 +4080,10 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" customHeight="1" spans="1:26">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -4080,10 +4108,10 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" customHeight="1" spans="1:26">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -4108,10 +4136,10 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" customHeight="1" spans="1:26">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -4137,8 +4165,8 @@
     </row>
     <row r="67" customHeight="1" spans="1:26">
       <c r="A67" s="1"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4165,8 +4193,8 @@
     </row>
     <row r="68" customHeight="1" spans="1:26">
       <c r="A68" s="1"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4193,8 +4221,8 @@
     </row>
     <row r="69" customHeight="1" spans="1:26">
       <c r="A69" s="1"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -4221,8 +4249,8 @@
     </row>
     <row r="70" customHeight="1" spans="1:26">
       <c r="A70" s="1"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4249,8 +4277,8 @@
     </row>
     <row r="71" customHeight="1" spans="1:26">
       <c r="A71" s="1"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4277,8 +4305,8 @@
     </row>
     <row r="72" customHeight="1" spans="1:26">
       <c r="A72" s="1"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4305,8 +4333,8 @@
     </row>
     <row r="73" customHeight="1" spans="1:26">
       <c r="A73" s="1"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4333,8 +4361,8 @@
     </row>
     <row r="74" customHeight="1" spans="1:26">
       <c r="A74" s="1"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4361,8 +4389,8 @@
     </row>
     <row r="75" customHeight="1" spans="1:26">
       <c r="A75" s="1"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4389,8 +4417,8 @@
     </row>
     <row r="76" customHeight="1" spans="1:26">
       <c r="A76" s="1"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4417,8 +4445,8 @@
     </row>
     <row r="77" customHeight="1" spans="1:26">
       <c r="A77" s="1"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4445,8 +4473,8 @@
     </row>
     <row r="78" customHeight="1" spans="1:26">
       <c r="A78" s="1"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4473,8 +4501,8 @@
     </row>
     <row r="79" customHeight="1" spans="1:26">
       <c r="A79" s="1"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4501,8 +4529,8 @@
     </row>
     <row r="80" customHeight="1" spans="1:26">
       <c r="A80" s="1"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4529,8 +4557,8 @@
     </row>
     <row r="81" customHeight="1" spans="1:26">
       <c r="A81" s="1"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4557,8 +4585,8 @@
     </row>
     <row r="82" customHeight="1" spans="1:26">
       <c r="A82" s="1"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4585,8 +4613,8 @@
     </row>
     <row r="83" customHeight="1" spans="1:26">
       <c r="A83" s="1"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4613,8 +4641,8 @@
     </row>
     <row r="84" customHeight="1" spans="1:26">
       <c r="A84" s="1"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4641,8 +4669,8 @@
     </row>
     <row r="85" customHeight="1" spans="1:26">
       <c r="A85" s="1"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4669,8 +4697,8 @@
     </row>
     <row r="86" customHeight="1" spans="1:26">
       <c r="A86" s="1"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4697,8 +4725,8 @@
     </row>
     <row r="87" customHeight="1" spans="1:26">
       <c r="A87" s="1"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4725,8 +4753,8 @@
     </row>
     <row r="88" customHeight="1" spans="1:26">
       <c r="A88" s="1"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4753,8 +4781,8 @@
     </row>
     <row r="89" customHeight="1" spans="1:26">
       <c r="A89" s="1"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4781,8 +4809,8 @@
     </row>
     <row r="90" customHeight="1" spans="1:26">
       <c r="A90" s="1"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4809,8 +4837,8 @@
     </row>
     <row r="91" customHeight="1" spans="1:26">
       <c r="A91" s="1"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4837,8 +4865,8 @@
     </row>
     <row r="92" customHeight="1" spans="1:26">
       <c r="A92" s="1"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4865,8 +4893,8 @@
     </row>
     <row r="93" customHeight="1" spans="1:26">
       <c r="A93" s="1"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4893,8 +4921,8 @@
     </row>
     <row r="94" customHeight="1" spans="1:26">
       <c r="A94" s="1"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -4921,8 +4949,8 @@
     </row>
     <row r="95" customHeight="1" spans="1:26">
       <c r="A95" s="1"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4949,8 +4977,8 @@
     </row>
     <row r="96" customHeight="1" spans="1:26">
       <c r="A96" s="1"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4977,8 +5005,8 @@
     </row>
     <row r="97" customHeight="1" spans="1:26">
       <c r="A97" s="1"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5005,8 +5033,8 @@
     </row>
     <row r="98" customHeight="1" spans="1:26">
       <c r="A98" s="1"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -5033,8 +5061,8 @@
     </row>
     <row r="99" customHeight="1" spans="1:26">
       <c r="A99" s="1"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5061,8 +5089,8 @@
     </row>
     <row r="100" customHeight="1" spans="1:26">
       <c r="A100" s="1"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5089,8 +5117,8 @@
     </row>
     <row r="101" customHeight="1" spans="1:26">
       <c r="A101" s="1"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5117,8 +5145,8 @@
     </row>
     <row r="102" customHeight="1" spans="1:26">
       <c r="A102" s="1"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5145,8 +5173,8 @@
     </row>
     <row r="103" customHeight="1" spans="1:26">
       <c r="A103" s="1"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5173,8 +5201,8 @@
     </row>
     <row r="104" customHeight="1" spans="1:26">
       <c r="A104" s="1"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5201,8 +5229,8 @@
     </row>
     <row r="105" customHeight="1" spans="1:26">
       <c r="A105" s="1"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5229,8 +5257,8 @@
     </row>
     <row r="106" customHeight="1" spans="1:26">
       <c r="A106" s="1"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5257,8 +5285,8 @@
     </row>
     <row r="107" customHeight="1" spans="1:26">
       <c r="A107" s="1"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5285,8 +5313,8 @@
     </row>
     <row r="108" customHeight="1" spans="1:26">
       <c r="A108" s="1"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5313,8 +5341,8 @@
     </row>
     <row r="109" customHeight="1" spans="1:26">
       <c r="A109" s="1"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5341,8 +5369,8 @@
     </row>
     <row r="110" customHeight="1" spans="1:26">
       <c r="A110" s="1"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5369,8 +5397,8 @@
     </row>
     <row r="111" customHeight="1" spans="1:26">
       <c r="A111" s="1"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5397,8 +5425,8 @@
     </row>
     <row r="112" customHeight="1" spans="1:26">
       <c r="A112" s="1"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -5425,8 +5453,8 @@
     </row>
     <row r="113" customHeight="1" spans="1:26">
       <c r="A113" s="1"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -5453,8 +5481,8 @@
     </row>
     <row r="114" customHeight="1" spans="1:26">
       <c r="A114" s="1"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -5481,8 +5509,8 @@
     </row>
     <row r="115" customHeight="1" spans="1:26">
       <c r="A115" s="1"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -5509,8 +5537,8 @@
     </row>
     <row r="116" customHeight="1" spans="1:26">
       <c r="A116" s="1"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -5537,8 +5565,8 @@
     </row>
     <row r="117" customHeight="1" spans="1:26">
       <c r="A117" s="1"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5565,8 +5593,8 @@
     </row>
     <row r="118" customHeight="1" spans="1:26">
       <c r="A118" s="1"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -5593,8 +5621,8 @@
     </row>
     <row r="119" customHeight="1" spans="1:26">
       <c r="A119" s="1"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -5621,8 +5649,8 @@
     </row>
     <row r="120" customHeight="1" spans="1:26">
       <c r="A120" s="1"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5649,8 +5677,8 @@
     </row>
     <row r="121" customHeight="1" spans="1:26">
       <c r="A121" s="1"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5677,8 +5705,8 @@
     </row>
     <row r="122" customHeight="1" spans="1:26">
       <c r="A122" s="1"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -5705,8 +5733,8 @@
     </row>
     <row r="123" customHeight="1" spans="1:26">
       <c r="A123" s="1"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -5733,8 +5761,8 @@
     </row>
     <row r="124" customHeight="1" spans="1:26">
       <c r="A124" s="1"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -5761,8 +5789,8 @@
     </row>
     <row r="125" customHeight="1" spans="1:26">
       <c r="A125" s="1"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -5789,8 +5817,8 @@
     </row>
     <row r="126" customHeight="1" spans="1:26">
       <c r="A126" s="1"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5817,8 +5845,8 @@
     </row>
     <row r="127" customHeight="1" spans="1:26">
       <c r="A127" s="1"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5845,8 +5873,8 @@
     </row>
     <row r="128" customHeight="1" spans="1:26">
       <c r="A128" s="1"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5873,8 +5901,8 @@
     </row>
     <row r="129" customHeight="1" spans="1:26">
       <c r="A129" s="1"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5901,8 +5929,8 @@
     </row>
     <row r="130" customHeight="1" spans="1:26">
       <c r="A130" s="1"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -5929,8 +5957,8 @@
     </row>
     <row r="131" customHeight="1" spans="1:26">
       <c r="A131" s="1"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -5957,9 +5985,9 @@
     </row>
     <row r="132" customHeight="1" spans="1:26">
       <c r="A132" s="1"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -5986,8 +6014,8 @@
     <row r="133" customHeight="1" spans="1:26">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -6014,8 +6042,8 @@
     <row r="134" customHeight="1" spans="1:26">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6042,8 +6070,8 @@
     <row r="135" customHeight="1" spans="1:26">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6070,8 +6098,8 @@
     <row r="136" customHeight="1" spans="1:26">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6098,8 +6126,8 @@
     <row r="137" customHeight="1" spans="1:26">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -6126,8 +6154,8 @@
     <row r="138" customHeight="1" spans="1:26">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -6154,8 +6182,8 @@
     <row r="139" customHeight="1" spans="1:26">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -6182,8 +6210,8 @@
     <row r="140" customHeight="1" spans="1:26">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -6210,8 +6238,8 @@
     <row r="141" customHeight="1" spans="1:26">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -6238,8 +6266,8 @@
     <row r="142" customHeight="1" spans="1:26">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -6266,8 +6294,8 @@
     <row r="143" customHeight="1" spans="1:26">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -6294,8 +6322,8 @@
     <row r="144" customHeight="1" spans="1:26">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -6322,8 +6350,8 @@
     <row r="145" customHeight="1" spans="1:26">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -6350,8 +6378,8 @@
     <row r="146" customHeight="1" spans="1:26">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -6378,8 +6406,8 @@
     <row r="147" customHeight="1" spans="1:26">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -6406,8 +6434,8 @@
     <row r="148" customHeight="1" spans="1:26">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -6434,8 +6462,8 @@
     <row r="149" customHeight="1" spans="1:26">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -6462,8 +6490,8 @@
     <row r="150" customHeight="1" spans="1:26">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -6490,8 +6518,8 @@
     <row r="151" customHeight="1" spans="1:26">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6518,8 +6546,8 @@
     <row r="152" customHeight="1" spans="1:26">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -6546,8 +6574,8 @@
     <row r="153" customHeight="1" spans="1:26">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -6574,8 +6602,8 @@
     <row r="154" customHeight="1" spans="1:26">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -6602,8 +6630,8 @@
     <row r="155" customHeight="1" spans="1:26">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -6630,8 +6658,8 @@
     <row r="156" customHeight="1" spans="1:26">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -6658,8 +6686,8 @@
     <row r="157" customHeight="1" spans="1:26">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -6686,8 +6714,8 @@
     <row r="158" customHeight="1" spans="1:26">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -6714,8 +6742,8 @@
     <row r="159" customHeight="1" spans="1:26">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -6742,8 +6770,8 @@
     <row r="160" customHeight="1" spans="1:26">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -6770,8 +6798,8 @@
     <row r="161" customHeight="1" spans="1:26">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -6798,8 +6826,8 @@
     <row r="162" customHeight="1" spans="1:26">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -6826,8 +6854,8 @@
     <row r="163" customHeight="1" spans="1:26">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -6854,8 +6882,8 @@
     <row r="164" customHeight="1" spans="1:26">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -6882,8 +6910,8 @@
     <row r="165" customHeight="1" spans="1:26">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -6910,8 +6938,8 @@
     <row r="166" customHeight="1" spans="1:26">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -6938,8 +6966,8 @@
     <row r="167" customHeight="1" spans="1:26">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -6966,8 +6994,8 @@
     <row r="168" customHeight="1" spans="1:26">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -6994,8 +7022,8 @@
     <row r="169" customHeight="1" spans="1:26">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -7022,8 +7050,8 @@
     <row r="170" customHeight="1" spans="1:26">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -7050,8 +7078,8 @@
     <row r="171" customHeight="1" spans="1:26">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -7078,8 +7106,8 @@
     <row r="172" customHeight="1" spans="1:26">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -7106,8 +7134,8 @@
     <row r="173" customHeight="1" spans="1:26">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -7134,8 +7162,8 @@
     <row r="174" customHeight="1" spans="1:26">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -7162,8 +7190,8 @@
     <row r="175" customHeight="1" spans="1:26">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -7190,8 +7218,8 @@
     <row r="176" customHeight="1" spans="1:26">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -7218,8 +7246,8 @@
     <row r="177" customHeight="1" spans="1:26">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -7246,8 +7274,8 @@
     <row r="178" customHeight="1" spans="1:26">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -7274,8 +7302,8 @@
     <row r="179" customHeight="1" spans="1:26">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -7302,8 +7330,8 @@
     <row r="180" customHeight="1" spans="1:26">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -7330,8 +7358,8 @@
     <row r="181" customHeight="1" spans="1:26">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -7358,8 +7386,8 @@
     <row r="182" customHeight="1" spans="1:26">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -7386,8 +7414,8 @@
     <row r="183" customHeight="1" spans="1:26">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -7414,8 +7442,8 @@
     <row r="184" customHeight="1" spans="1:26">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -7442,8 +7470,8 @@
     <row r="185" customHeight="1" spans="1:26">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -7470,8 +7498,8 @@
     <row r="186" customHeight="1" spans="1:26">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -7498,8 +7526,8 @@
     <row r="187" customHeight="1" spans="1:26">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -7526,8 +7554,8 @@
     <row r="188" customHeight="1" spans="1:26">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -7554,8 +7582,8 @@
     <row r="189" customHeight="1" spans="1:26">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -7582,8 +7610,8 @@
     <row r="190" customHeight="1" spans="1:26">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -7610,8 +7638,8 @@
     <row r="191" customHeight="1" spans="1:26">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -7638,8 +7666,8 @@
     <row r="192" customHeight="1" spans="1:26">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -7666,8 +7694,8 @@
     <row r="193" customHeight="1" spans="1:26">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -7694,8 +7722,8 @@
     <row r="194" customHeight="1" spans="1:26">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -7722,8 +7750,8 @@
     <row r="195" customHeight="1" spans="1:26">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="141">
   <si>
     <t>symptom</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Frequent mood changes</t>
-  </si>
-  <si>
-    <t>Mood Swings &amp; Emotional Problems</t>
   </si>
   <si>
     <t>Challenges with staying organized or on top of things</t>
@@ -1569,8 +1566,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -2957,7 +2954,7 @@
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>39</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:26">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
@@ -3025,16 +3022,16 @@
     </row>
     <row r="37" customHeight="1" spans="1:26">
       <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -3065,16 +3062,16 @@
     </row>
     <row r="38" customHeight="1" spans="1:26">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -3105,16 +3102,16 @@
     </row>
     <row r="39" customHeight="1" spans="1:26">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" t="s">
         <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -3145,16 +3142,16 @@
     </row>
     <row r="40" customHeight="1" spans="1:26">
       <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" t="s">
         <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
@@ -3185,22 +3182,22 @@
     </row>
     <row r="41" customHeight="1" spans="1:26">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3225,22 +3222,22 @@
     </row>
     <row r="42" customHeight="1" spans="1:26">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" t="s">
         <v>101</v>
       </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
       <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3265,22 +3262,22 @@
     </row>
     <row r="43" customHeight="1" spans="1:26">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" t="s">
         <v>101</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
       <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3305,22 +3302,22 @@
     </row>
     <row r="44" customHeight="1" spans="1:26">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" t="s">
         <v>110</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>111</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3345,22 +3342,22 @@
     </row>
     <row r="45" customHeight="1" spans="1:26">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" t="s">
         <v>110</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>111</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3385,22 +3382,22 @@
     </row>
     <row r="46" customHeight="1" spans="1:26">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" t="s">
         <v>110</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>111</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3425,22 +3422,22 @@
     </row>
     <row r="47" customHeight="1" spans="1:26">
       <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
         <v>116</v>
       </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3465,22 +3462,22 @@
     </row>
     <row r="48" customHeight="1" spans="1:26">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
       <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3505,16 +3502,16 @@
     </row>
     <row r="49" customHeight="1" spans="1:26">
       <c r="A49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" t="s">
         <v>122</v>
-      </c>
-      <c r="D49" t="s">
-        <v>123</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -3545,16 +3542,16 @@
     </row>
     <row r="50" customHeight="1" spans="1:26">
       <c r="A50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" t="s">
         <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
@@ -3585,16 +3582,16 @@
     </row>
     <row r="51" customHeight="1" spans="1:26">
       <c r="A51" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" t="s">
-        <v>123</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
@@ -3625,16 +3622,16 @@
     </row>
     <row r="52" customHeight="1" spans="1:26">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" t="s">
         <v>122</v>
-      </c>
-      <c r="D52" t="s">
-        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>24</v>
@@ -3665,16 +3662,16 @@
     </row>
     <row r="53" customHeight="1" spans="1:26">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" t="s">
         <v>129</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
@@ -3705,16 +3702,16 @@
     </row>
     <row r="54" customHeight="1" spans="1:26">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" t="s">
         <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -3745,16 +3742,16 @@
     </row>
     <row r="55" customHeight="1" spans="1:26">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" t="s">
         <v>129</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
       </c>
       <c r="E55" t="s">
         <v>52</v>
@@ -3785,16 +3782,16 @@
     </row>
     <row r="56" customHeight="1" spans="1:26">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" t="s">
         <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3825,16 +3822,16 @@
     </row>
     <row r="57" customHeight="1" spans="1:26">
       <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
         <v>134</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" t="s">
         <v>136</v>
-      </c>
-      <c r="D57" t="s">
-        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -3865,16 +3862,16 @@
     </row>
     <row r="58" customHeight="1" spans="1:26">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" t="s">
-        <v>137</v>
       </c>
       <c r="E58" t="s">
         <v>55</v>
@@ -3905,16 +3902,16 @@
     </row>
     <row r="59" customHeight="1" spans="1:26">
       <c r="A59" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" t="s">
         <v>136</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
       </c>
       <c r="E59" t="s">
         <v>55</v>
@@ -3945,16 +3942,16 @@
     </row>
     <row r="60" customHeight="1" spans="1:26">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" t="s">
         <v>136</v>
-      </c>
-      <c r="D60" t="s">
-        <v>137</v>
       </c>
       <c r="E60" t="s">
         <v>76</v>
@@ -3985,16 +3982,16 @@
     </row>
     <row r="61" customHeight="1" spans="1:26">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" t="s">
         <v>136</v>
-      </c>
-      <c r="D61" t="s">
-        <v>137</v>
       </c>
       <c r="E61" t="s">
         <v>76</v>
